--- a/Master.xlsx
+++ b/Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ukdeloitte-my.sharepoint.com/personal/bcornish_deloitte_co_uk/Documents/ICAS/TPS/FINREP/Bob's FINREP Class Notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="8_{E8526F56-5734-4217-807A-AF061E9FB079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D50A6158-48B6-4F0A-B90B-C26B44554D80}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="8_{E8526F56-5734-4217-807A-AF061E9FB079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70725A4B-8B00-4482-AFFC-71EE73CCC2D2}"/>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="3660" windowWidth="21600" windowHeight="11385" xr2:uid="{EE433AD5-DBAB-499B-9F45-0D07E2ED5393}"/>
+    <workbookView xWindow="3435" yWindow="3315" windowWidth="21600" windowHeight="11385" xr2:uid="{EE433AD5-DBAB-499B-9F45-0D07E2ED5393}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
   <si>
     <t>Module 1 - Accounting Principles and The Conceptual Framework</t>
   </si>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t>p</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -523,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DB04CAF-6DF8-4DC1-BFCC-E3503BD7D5E5}">
   <dimension ref="A2:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -753,6 +756,9 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
       <c r="B32" s="2" t="s">
         <v>29</v>
       </c>
@@ -775,12 +781,18 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
       <c r="B35" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C35" s="2"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
       <c r="B36" s="2" t="s">
         <v>33</v>
       </c>
@@ -795,6 +807,9 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
       <c r="B38" s="2" t="s">
         <v>35</v>
       </c>

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ukdeloitte-my.sharepoint.com/personal/bcornish_deloitte_co_uk/Documents/ICAS/TPS/FINREP/Bob's FINREP Class Notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="66" documentId="8_{E8526F56-5734-4217-807A-AF061E9FB079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70725A4B-8B00-4482-AFFC-71EE73CCC2D2}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="8_{E8526F56-5734-4217-807A-AF061E9FB079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59964519-F5AC-491C-9862-610F5E2FB917}"/>
   <bookViews>
-    <workbookView xWindow="3435" yWindow="3315" windowWidth="21600" windowHeight="11385" xr2:uid="{EE433AD5-DBAB-499B-9F45-0D07E2ED5393}"/>
+    <workbookView xWindow="5160" yWindow="5040" windowWidth="21600" windowHeight="11385" xr2:uid="{EE433AD5-DBAB-499B-9F45-0D07E2ED5393}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Module 1 - Accounting Principles and The Conceptual Framework</t>
   </si>
@@ -147,12 +147,6 @@
   </si>
   <si>
     <t>Module 37 - Disclosure: Corporate Reporting</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>x</t>
   </si>
 </sst>
 </file>
@@ -524,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DB04CAF-6DF8-4DC1-BFCC-E3503BD7D5E5}">
-  <dimension ref="A2:C39"/>
+  <dimension ref="B2:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,290 +529,194 @@
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>37</v>
-      </c>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
-      </c>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1</v>
-      </c>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1</v>
-      </c>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1</v>
-      </c>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>37</v>
-      </c>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1</v>
-      </c>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1</v>
-      </c>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>37</v>
-      </c>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>37</v>
-      </c>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>37</v>
-      </c>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>2</v>
-      </c>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>2</v>
-      </c>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>37</v>
-      </c>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>37</v>
-      </c>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>1</v>
-      </c>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>37</v>
-      </c>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>2</v>
-      </c>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>2</v>
-      </c>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>2</v>
-      </c>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>2</v>
-      </c>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>38</v>
-      </c>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>2</v>
-      </c>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>2</v>
-      </c>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>38</v>
-      </c>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>38</v>
-      </c>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>38</v>
-      </c>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>2</v>
-      </c>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>36</v>
       </c>

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ukdeloitte-my.sharepoint.com/personal/bcornish_deloitte_co_uk/Documents/ICAS/TPS/FINREP/Bob's FINREP Class Notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="8_{E8526F56-5734-4217-807A-AF061E9FB079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59964519-F5AC-491C-9862-610F5E2FB917}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="8_{E8526F56-5734-4217-807A-AF061E9FB079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7163A784-0880-45EB-AA09-9D4451A249A4}"/>
   <bookViews>
-    <workbookView xWindow="5160" yWindow="5040" windowWidth="21600" windowHeight="11385" xr2:uid="{EE433AD5-DBAB-499B-9F45-0D07E2ED5393}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11160" xr2:uid="{EE433AD5-DBAB-499B-9F45-0D07E2ED5393}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -521,7 +521,7 @@
   <dimension ref="B2:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="69" documentId="8_{E8526F56-5734-4217-807A-AF061E9FB079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7163A784-0880-45EB-AA09-9D4451A249A4}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11160" xr2:uid="{EE433AD5-DBAB-499B-9F45-0D07E2ED5393}"/>
+    <workbookView xWindow="4455" yWindow="-17460" windowWidth="21600" windowHeight="11385" xr2:uid="{EE433AD5-DBAB-499B-9F45-0D07E2ED5393}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -520,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DB04CAF-6DF8-4DC1-BFCC-E3503BD7D5E5}">
   <dimension ref="B2:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
